--- a/asus_matches.xlsx
+++ b/asus_matches.xlsx
@@ -1,42 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP EliteBook\OneDrive\A_Miscalaneus\Escritorio\Code\git_folder\images_downloader\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B0E9B1-8081-4C2D-8AB7-22DDB1722DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -335,19 +385,1850 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.6328125" customWidth="1"/>
-    <col min="2" max="2" width="52.1796875" customWidth="1"/>
+    <col width="31.6328125" customWidth="1" min="1" max="1"/>
+    <col width="52.1796875" customWidth="1" min="2" max="2"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus chromebook flip z3400ft  </t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>asus chromebook flip z3400ft-aj0111 - ordenador portátil de 14" fullhd (intel core m3-8100y, 8gb ram, 64gb emmc, intel uhd graphics 615, chrome os) plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A0880477I2Y0NU4O8BFX&amp;url=%2FASUS-Chromebook-Flip-Z3400FT-AJ0111-Ordenador%2Fdp%2FB0883BHSY5%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dasus%2Bchromebook%2Bflip%2Bz3400ft%26qid%3D1631089419%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1631089419&amp;id=787985031942371&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus chromebook flip z3400ft  </t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>asus chromebook flip z3400ft-aj0111 - ordenador portátil de 14" fullhd (intel core m3-8100y, 8gb ram, 64gb emmc, intel uhd graphics 615, chrome os) plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-Chromebook-Flip-Z3400FT-AJ0111-Ordenador/dp/B0883BHSY5/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+chromebook+flip+z3400ft&amp;qid=1631089419&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus chromebook flip z3400ft  </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>asus chromebook flip z3400ft-aj0111 - portátil 14" full hd (core m3-8100y, 8gb ram, 64gb emmc, uhd graphics 615, chrome os) plata azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-Chromebook-Flip-Z3400FT-AJ0111-Port%C3%A1til/dp/B097T4F81M/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+chromebook+flip+z3400ft&amp;qid=1631089419&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus chromebook flip z7400ff-e10109  </t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>asus chromebook flip z7400ff-e10109 - ordenador portátil convertible de 14" fullhd (intel core i5-10210u, 16gb ram, 512gb ssd, intel uhd graphics, chrome os) blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A068597228Q4OJS48V4HZ&amp;url=%2FASUS-Chromebook-Flip-Z7400FF-E10109-Ordenador%2Fdp%2FB0883BGPTD%2Fref%3Dsr_1_2_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dasus%2Bchromebook%2Bflip%2Bz7400ff-e10109%26qid%3D1631089432%26s%3Delectronics%26sr%3D1-2-spons%26psc%3D1&amp;qualifier=1631089432&amp;id=4204683282429597&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus chromebook flip z7400ff-e10109  </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>asus chromebook flip z7400ff-e10109 - ordenador portátil convertible de 14" fullhd (intel core i5-10210u, 16gb ram, 512gb ssd, intel uhd graphics, chrome os) blanco - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-Chromebook-Flip-Z7400FF-E10109-Ordenador/dp/B0883BGPTD/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+chromebook+flip+z7400ff-e10109&amp;qid=1631089432&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus e210ma-gj003r  </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>asus e210ma-gj003r - portátil 11.6" hd (celeron n4020, 4gb ram, 64gb emmc, uhd graphics 605, windows 10 pro) blanco sueño - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-E210MA-GJ003R-Port%C3%A1til-Celeron-Graphics/dp/B08NXKSS8R/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+e210ma-gj003r&amp;qid=1631089457&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus e410ma-ek007ts  </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>asus e410ma-ek007ts - portátil de 14" fullhd (celeron n4020, 4 gb ram, 64 gb emmc, windows 10 home en modo s) azul elétrico - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-E410MA-EK007TS-Port%C3%A1til-Celeron-El%C3%A9trico/dp/B08DNK9PYP/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+e410ma-ek007ts&amp;qid=1631089471&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus f415ea-ek153  </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>asus f415ea-ek153 - portátil 14" full hd (core i7-1165g7, 8gb ram, 512gb ssd, iris xe graphics, sin sistema operativo) plata transparente - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-F415EA-EK153-i7-1165G7-Operativo-Transparente/dp/B097TR6231/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+f415ea-ek153&amp;qid=1631089484&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus p1511cja-br666r  </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>asus vivobook 15 p1511cja-br666r - portátil .6" hd (core i7-1065g7, 8gb ram, 512gb ssd, iris plus graphics, windows 10 pro) gris pizarra - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-15-P1511CJA-BR666R-i7-1065G7/dp/B08XC1THVC/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+p1511cja-br666r&amp;qid=1631089510&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus proart studiobook w700g1t-av059  </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>asus proart studiobook pro 17 w700g1t-av059 - portátil 17" wuxga (core i7-9750h, 32gb ram, 1tb ssd, quadro t1000 4gb, sin sistema operativo) gris estrella - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ProArt-StudioBook-Pro-W700G1T-AV059/dp/B08CR4SCJY/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+proart+studiobook+w700g1t-av059&amp;qid=1631089523&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog g513qm  </t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>asus rog g513qm-hf026 - ordenador portátil gaming de 15.6" fullhd 300hz (ryzen 7 5800h, 16gb ram, 1tb ssd, nvidia rtx3060-6gb, sin sistema operativo) gris eclipse-teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-G513QM-HF026-RTX3060-6GB-Eclipse-Teclado/dp/B0947D2NZJ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+g513qm&amp;qid=1631089559&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog g513qm  </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>asus rog g513qm-hf246 - portátil gaming de 15.6" full hd 300hz (ryzen 7 5800h, 16gb ram, 1tb ssd, geforce rtx 3060 6gb, sin sistema operativo) rosa punk elétrico - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-G513QM-HF246-Port%C3%A1til-Operativo/dp/B08CV9T1Z8/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+g513qm&amp;qid=1631089559&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog g513qm  </t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>asus rog g513qm-hf047 - portátil gaming de 15.6" full hd 300hz (ryzen 7 5800h, 16gb ram, 1tb ssd, geforce rtx 3060 6gb, sin sistema operativo) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-G513QM-HF047-Port%C3%A1til-Operativo/dp/B0987VNTG5/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+g513qm&amp;qid=1631089559&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog g513qm  </t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>asus rog g513qm-hf070 - portátil gaming de 15.6" full hd 300hz (ryzen 9 5900hx, 16gb ram, 1tb ssd, geforce rtx 3060 6gb, sin sistema operativo) gris eclipse - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-G513QM-HF070-Port%C3%A1til-Operativo/dp/B097T45YWX/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+g513qm&amp;qid=1631089559&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog strix g15  </t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>asus rog strix g15 g512lv-hn090 - ordenador portátil gaming 15.6" fullhd 144hz (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia rtx2060-6gb, sin sistema operativo) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Strix-G15-G512LV-HN090/dp/B08DNKJ6PK/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+strix+g15&amp;qid=1631089572&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog strix g15  </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>asus rog strix g15 g512lv-hn221t - ordenador portátil gaming 15.6 " fullhd 144hz (intel core i7-10870h, 16gb ram, 1tb ssd, nvidia rtx2060-6gb, windows 10 home) negro original - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Strix-G15-G512LV-HN221T/dp/B08NTQ7VL5/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+strix+g15&amp;qid=1631089572&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog strix g15  </t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>asus rog strix g15 g512lv-hn221 - portátil gaming 15.6 " fullhd 144hz (intel core i7-10870h, 16gb ram, 1tb ssd, nvidia rtx2060-6gb, sin sistema operativo) negro original - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Strix-G15-G512LV-HN221/dp/B08NTQYKFF/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+strix+g15&amp;qid=1631089572&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog strix g15  </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>asus rog strix g15 g512lv-hn090t - ordenador portátil gaming 15.6" fullhd 144hz (intel core i7-10750h, 16gb ram, 1tb ssd, nvidia rtx2060-6gb, windows 10 home) negro original - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Strix-G15-G512LV-HN090T/dp/B08DNK6ZZX/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+strix+g15&amp;qid=1631089572&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g14  </t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus g14 ga401ii-he004t - portátil gaming de 14" full hd 120hz (ryzen 7 4800hs, 16gb ram, 1tb ssd, geforce gtx 1650 ti 4gb, windows 10 home) gris eclipse - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G14-GA401II-HE004T/dp/B08CKGY2N8/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g14&amp;qid=1631089598&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g14  </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus g14 ga401iu-ha123t - portátil gaming de 14" quad hd (ryzen 9 4900hs, 16gb ram, 1tb ssd, gtx 1660 ti 6gb, windows 10 home) blanco lunar con anime matrix - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G14-GA401IU-HA123T/dp/B08CRMZPGQ/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g14&amp;qid=1631089598&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g14  </t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus g14 ga401ii-he004 - portátil gaming de 14" fullhd 120hz (ryzen 7 4800hs, 16gb ram, 1tb ssd, nvidia gtx 1650ti-4gb , sin sistema operativo) gris eclipse - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Vaorwne-DDR3L-memoria-Sodimm-pines/dp/B08CKR4YZJ/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g14&amp;qid=1631089598&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g14  </t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus g14 ga401iv-he003 - ordenador portátil gaming 14" fullhd (ryzen 7 4800hs, 16gb ram, 1tb ssd, nvidia rtx2060-6gb, sin sistema operativo) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G14-GA401IV-HE003/dp/B088PNP4RX/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g14&amp;qid=1631089598&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g14  </t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus g14 ga401iu-he118t - portátil gaming de 14" fullhd 120hz (ryzen 9 4900hs, 16gb ram, 1tb ssd, gtx 1660 ti 6gb, windows 10 home) blanco lunar con anime matrix - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G14-GA401IU-HE118T/dp/B08CQWDFYH/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g14&amp;qid=1631089598&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g14  </t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus g14 ga401iu-he001 - ordenador portátil gaming 14" fullhd 120hz (ryzen 7 4800hs, 16gb ram, 512gb ssd, gtx1660ti-6gb, sin sistema operativo) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-GA401IU-HE001-GTX1660Ti-6GB/dp/B088PNZ7N2/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g14&amp;qid=1631089598&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g14  </t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus g14 ga401iu-ha134t - portátil gaming de 14" quad hd (ryzen 9 4900hs, 16gb ram, 1tb ssd, gtx 1660 ti 6gb, windows 10 home) gris eclipse con anime matrix - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G14-GA401IU-HA134T/dp/B08CRDKR6R/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g14&amp;qid=1631089598&amp;s=electronics&amp;sr=1-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g15  </t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus g15 ga502iv-hn020 - ordenador portátil gaming 15,6" fullhd 144hz (ryzen 7 4800hs, 16gb ram, 512gb ssd, nvidia rtx2060-6gb, sin sistema operativo) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-GA502IV-HN020-ROG-Zephyrus-G15/dp/B087GMG3MV/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g15&amp;qid=1631089610&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g15  </t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2021 asus_rog zephyrus g15 3070 gaming laptop, 165hz 3ms wqhd 15.6", ryzen 9-5900hs 8-core, rtx 3070 8gb gddr6, 24gb ram, 1tb ssd, rgb kb, mytrix hdmi cable, win 10</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS_ROG-Zephyrus-Gaming-Laptop-9-5900HS/dp/B08XY7W2FM/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g15&amp;qid=1631089610&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g15  </t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus g15 ga503qr-hq007t - portátil gaming de 15.6" quad hd 165hz (ryzen 7 5800hs, 16gb ram, 1tb ssd, geforce rtx 3070 8gb, windows 10 home) gris eclipse - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G15-GA503QR-HQ007T/dp/B08CVC33BX/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g15&amp;qid=1631089610&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g15  </t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus g15 ga502iu-al011 - ordenador portátil gaming 15.6" fhd 144hz (ryzen 7 4800hs, 16gb ram, 1tb ssd, nvidia gtx1660ti-6gb, sin so) negro cepillado - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G15-GA502IU-AL011/dp/B08DNJQGNR/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g15&amp;qid=1631089610&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g15  </t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus g15 ga503qm-hq046t - portátil gaming de 15.6" quad hd 165hz (ryzen 7 5800hs, 16gb ram, 1tb ssd, geforce rtx 3060 6gb, windows 10 home) blanco lunar - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G15-GA503QM-HQ046T/dp/B08D3TZXXS/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g15&amp;qid=1631089610&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus g15  </t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus g15 ga503qm-hq008t - portátil gaming de 15.6" quad hd 165hz (ryzen 7 5800hs, 16gb ram, 1tb ssd, geforce rtx 3060 6gb, windows 10 home) gris eclipse - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-G15-GA503QM-HQ008T/dp/B08CVC4YXH/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+g15&amp;qid=1631089610&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus s15 gx502lxs-hf012t  </t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus s15 gx502lxs-hf012t - portátil gaming de 15.6" fullhd 300hz (i7-10750h, 32gb ram, 1tb ssd, geforce rtx2080 super 8gb gddr6, windows 10 home) negro cepillado - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-S15-GX502LXS-HF012T/dp/B089BLSZ1K/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+s15+gx502lxs-hf012t&amp;qid=1631089637&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus rog zephyrus s17 gx701lxs-hg032t  </t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>asus rog zephyrus s17 gx701lxs-hg032t - ordenador portátil gaming 17.3" fullhd (intel core i7-10875h, 32gb ram, 1tb ssd, nvidia rtx2080-8gb super, windows 10 home) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ROG-Zephyrus-S17-GX701LXS-HG032T/dp/B088PNMDL7/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+rog+zephyrus+s17+gx701lxs-hg032t&amp;qid=1631089648&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus tuf gaming a17 fa706qm-hx001  </t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>asus tuf gaming a17 fa706qm-hx001 - portátil gaming de 17.3" full hd 144hz (ryzen 7 5800h, 16gb ram, 1tb ssd, geforce rtx 3060 6gb, sin sistema operativo) gris eclipse - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-TUF-Gaming-A17-FA706QM-HX001/dp/B08CV94WTY/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+tuf+gaming+a17+fa706qm-hx001&amp;qid=1631089673&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus tuf gaming dash f15 fx516pr-hn002  </t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>asus tuf dash f15 fx516pr-hn002 - portátil gaming de 15.6" full hd 144hz (core i7-11370h, 16gb ram, 512gb ssd, geforce rtx 3070 8gb, sin sistema operativo) gris eclipse - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-TUF-Dash-F15-FX516PR-HN002/dp/B097T4MRSZ/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+tuf+gaming+dash+f15+fx516pr-hn002&amp;qid=1631089686&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>asus vivobook 15 f515ja-br097t - portátil de 15.6" hd (intel core i3-1005g1, 8gb ram, 256gb ssd, intel uhd graphics, windows 10) gris - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-15-F515JA-BR097T-i3-1005G1/dp/B08BZ5SYQX/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>asus vivobook 15 k513ea-bq684 - portátil .6" full hd (core i7-1165g7, 8gb ram, 512gb ssd, iris xe graphics, sin sistema operativo) negro indie - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-K513EA-BQ684-i7-1165G7-Operativo/dp/B08WRJCSYH/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>asus vivobook 15 k513ea-bq158t - portátil .6" full hd (core i5-1135g7, 8gb ram, 512gb ssd, iris xe graphics, windows 10 home) negro indie - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-15-K513EA-BQ158T-i5-1135G7/dp/B08BZ69BY1/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>asus vivobook 15 k513ea-bq684t - portátil .6" full hd (core i7-1165g7, 8gb ram, 512gb ssd, iris xe graphics, windows 10 home) negro indie - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-15-K513EA-BQ684T-i7-1165G7/dp/B08BZ5NSGS/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>asus vivobook 15 s513ea-bq689t - portátil .6" full hd (core i3-1115g4, 8gb ram, 512gb ssd, uhd graphics, windows 10 home) negro indie - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-15-S513EA-BQ689T-i3-1115G4/dp/B08BZ5VD6L/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>asus vivobook r565j, portátil de 15.6" fullhd (intel core i3-1005g1, 8gb ram, 256gb ssd, intel uhd graphics 600, sin sistema operativo) gris pizarra, teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-R565J-i3-1005G1-Operativo/dp/B08NTNMMMR/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>asus vivobook 15 p1511cja-br666r - portátil .6" hd (core i7-1065g7, 8gb ram, 512gb ssd, iris plus graphics, windows 10 pro) gris pizarra - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-15-P1511CJA-BR666R-i7-1065G7/dp/B08XC1THVC/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>asus vivobook 15 x571gt-bq882 - portátil .6" full hd (core i5-9300h, 16gb ram, 1tb hdd, 256gb ssd, geforce gtx 1650 4gb, sin sistema operativo) negro estrella - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-15-X571GT-BQ882-Operativo/dp/B0987TZMVV/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>asus vivobook 15 p1511cja-br667r - portátil .6" hd (core i5-1035g1, 8gb ram, 256gb ssd, uhd graphics, windows 10 pro) gris pizarra - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-15-P1511CJA-BR667R-i5-1035G1/dp/B08CR2YWSL/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>asus vivobook 15 p1511cja-br668r - portátil .6" hd (core i5-1035g1, 8gb ram, 512gb ssd, uhd graphics, windows 10 pro) gris pizarra - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-15-P1511CJA-BR668R-i5-1035G1/dp/B08CR4TSMS/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>asus vivobook f515ja-br137t - portátil 15.6" hd (core i5-1035g1, 8gb ram, 512gb ssd, uhd graphics, windows 10 home) gris pizarra - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-F515JA-BR137T-Port%C3%A1til-i5-1035G1/dp/B08BZ5QXW1/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>asus vivobook s15 s533ea-bn147t - portátil 15.6" full hd (core i7-1165g7, 16gb ram, 512gb ssd, iris xe graphics, windows 10 home) blanco sueño - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-S15-S533EA-BN147T-i7-1165G7/dp/B08BZ67SS8/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook 15  </t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>asus vivobook s15 s533ea-bn149t - portátil 15.6" full hd (core i5-1135g7, 8gb ram, 512gb ssd, iris xe graphics, windows 10 home) negro indie - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-S15-S533EA-BN149T-i5-1135G7/dp/B08BZ5SRYF/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+15&amp;qid=1631089750&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook f515ja-br137t  </t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>asus vivobook f515ja-br137t - portátil 15.6" hd (core i5-1035g1, 8gb ram, 512gb ssd, uhd graphics, windows 10 home) gris pizarra - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-F515JA-BR137T-Port%C3%A1til-i5-1035G1/dp/B08BZ5QXW1/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+f515ja-br137t&amp;qid=1631089790&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook flip 14 tp412fa-ec707t  </t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>asus vivobook flip tp412fa-ec707t - portátil 14" full hd (core i5-10210u, 8gb ram, 512gb ssd, uhd graphics, windows 10 home) gris estrella - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-Flip-TP412FA-EC707T-i5-10210U/dp/B08BZ5LQ7M/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+flip+14+tp412fa-ec707t&amp;qid=1631089804&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook flip tp412fa-ec649t  </t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>asus vivobook flip tp412fa-ec649t - portátil 14" full hd (core i3-10110u, 8gb ram, 256gb ssd, uhd graphics, windows 10 home) azul galaxia - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-Flip-TP412FA-EC649T-i3-10110U/dp/B08BZ58J1D/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+flip+tp412fa-ec649t&amp;qid=1631089818&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook s14 s433ea-am612t  </t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>asus vivobook s14 s433ea-am612t - portátil 14" full hd (core i7-1165g7, 16gb ram, 512gb ssd, iris xe graphics, windows 10 home) blanco sueño - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-S14-S433EA-AM612T-i7-1165G7/dp/B08BZ632JZ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+s14+s433ea-am612t&amp;qid=1631089831&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook s413fa-eb560t  </t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>portatil asus vivobook 14 s413fa-eb560t negro i5-10210u/8gb/ssd 256gb/14 fhd/w10</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/PORTATIL-ASUS-14-S413FA-EB560T-I5-10210U/dp/B08HR489MJ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+s413fa-eb560t&amp;qid=1631089856&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus vivobook s433ea-am423t  </t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>asus vivobook s14 s433ea-am423t - portátil 14" full hd (core i5-1135g7, 8gb ram, 512gb ssd, iris xe graphics, windows 10 home) blanco sueño - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-VivoBook-S14-S433EA-AM423T-i5-1135G7/dp/B08BZ4PWV2/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+vivobook+s433ea-am423t&amp;qid=1631089869&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus x509ja-br252t  </t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>asus portatil x509ja-br252t</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-X509JA-BR252T-i3-1005G1-256GB-15-6/dp/B08FCP8YYX/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+x509ja-br252t&amp;qid=1631089882&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 13  </t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>asus zenbook flip 13 ux363ja-em189t - portátil convertible 13.3" fullhd (intel core i5-1035g4, 16gb ram, 512gb ssd, intel iris plus graphics, windows 10 home) gris pino-teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-Flip-UX363JA-EM189T-Pino-Teclado/dp/B08CS7D3RL/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+13&amp;qid=1631089922&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 13  </t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>asus zenbook 13 ux325ea-kg245t - ordenador portátil 13.3" full hd (intel core i7-1165g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 home) gris pino-teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-UX325EA-KG245T-Ordenador-Pino-Teclado/dp/B08X7JYDQL/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+13&amp;qid=1631089922&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 13  </t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>asus zenbook 13 ux325ea-eg247 - portátil .3" full hd (core i7-1165g7, 16gb ram, 512gb ssd, iris xe graphics, sin sistema operativo) lila neblina - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-UX325EA-EG247-i7-1165G7-Operativo/dp/B08VJH2VVK/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+13&amp;qid=1631089922&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 13  </t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>asus zenbook 13 um325ua-kg084 - portátil .3" full hd (ryzen 7 5700u, 16gb ram, 512gb ssd, radeon graphics, sin sistema operativo) gris pino - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-13-UM325UA-KG084-Operativo/dp/B0987T36J2/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+13&amp;qid=1631089922&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 13  </t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>asus zenbook flip 13 ux363ea-em087t - portátil convertible de 13.3" fullhd (intel core i5-1135g7, 8gb ram, 512gb ssd, intel iris xe graphics, windows 10 home ) gris pino - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-Flip-UX363EA-EM087T-Convertible/dp/B08NTSGTRD/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+13&amp;qid=1631089922&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 13  </t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>asus zenbook 13 um325ua-kg073 - portátil de 13.3" full hd (ryzen 7 5700u, 16gb ram, 512gb ssd, amd radeon graphics, sin so) grey - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-13-UM325UA-KG073-Port%C3%A1til/dp/B08CQVTJ86/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+13&amp;qid=1631089922&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 13  </t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>asus zenbook flip 13 ux363ea-hp043t - ordenador portátil 13.3" full hd (intel core i7-1165g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 home) gris pino-teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-Flip-UX363EA-HP043T-Pino-Teclado/dp/B08BZ5KYK1/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+13&amp;qid=1631089922&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 13  </t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 ux425ea-bm019 - portátil full hd (core i5-1135g7, 16gb ram, 512gb ssd, iris xe graphics, sin sistema operativo) lila neblina - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-UX425EA-BM019-i5-1135G7-Operativo/dp/B08BZ5MHPR/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+13&amp;qid=1631089922&amp;s=electronics&amp;sr=1-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>asus zenbook um425ia-am006 - ordenador portátil de 14" fullhd (ryzen7 4700u7, 16gb ram, 512gb ssd, radeon graphics, sin sistema operativo) aluminio - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-Zenbook-UM425IA-AM006-Ordenador-operativo/dp/B08BWN5KV8/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 ux425ea-bm094t - portátil full hd (core i7-1165g7, 16gb ram, 512gb ssd, iris xe graphics, windows 10 home) gris pino - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-14-UX425EA-BM094T-i7-1165G7/dp/B08BZ5Q4LM/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 ux425ea-bm020 - ordenador portátil de 14" full hd (intel core i7-1165g7, 16gb ram, 512gb ssd, intel iris xe graphics, sin sistema operativo) lila neblina-teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-UX425EA-BM020-Ordenador-Neblina-Teclado/dp/B08BZ6V9P8/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 ux425ea-bm019 - portátil full hd (core i5-1135g7, 16gb ram, 512gb ssd, iris xe graphics, sin sistema operativo) lila neblina - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-UX425EA-BM019-i5-1135G7-Operativo/dp/B08BZ5MHPR/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 um425ia-am006t - portátil full hd (ryzen 7 4700u, 16gb ram, 512gb ssd, radeon graphics, windows 10 home) gris pino - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-14-UM425IA-AM006T-Port%C3%A1til/dp/B08WWJHKZ7/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 ultralight ux435eal-kc096t - portátil de 14" full hd (intel core i7-1165g7, 16gb ram, 512gb ssd, 32gb intel optane, intel iris xe graphics, sin so) gris pino - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-Ultralight-UX435EAL-KC096T-i7-1165G7/dp/B08BZ63P8G/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 ux425ea-hm165t - portátil de 14 " fullhd (intel core i7-1165g7, 16gb ram, 512gb ssd, intel uhd graphics, windows 10 home) gris pino - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-14-UX425EA-HM165T-i7-1165G7/dp/B08NTQJ8TP/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>asus zenbook um431da-am003, portátil de 14" fullhd (ryzen r5 3500 , 8gb ram, 512gb ssd, amd radeon graphics, sin sistema operativo) metal azul - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-UM431DA-AM003-Port%C3%A1til-Graphics-Operativo/dp/B07Z6MQ1DB/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 ux434fac-a5188t - portátil de 14" fullhd (intel core i7-10510u, 16gb ram, 512gb ssd, intel graphics, windows 10 home) azul real - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-14-UX434FAC-A5188T-i7-10510U/dp/B07YRG78DZ/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 ux425ea-ki359t - ordenador portátil 14" full hd (intel core i7-1165g7, 16gb ram, 512gb ssd, iris xe graphics, windows 10 home) lila neblina - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-UX425EA-KI359T-Ordenador-i7-1165G7/dp/B08CKBS86L/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 ux431fa-am132t - portátil de 14" fullhd (intel core i5-10210u, 8gb ram, 512gb ssd, intel uhd, windows 10) metal azul plata - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-14-UX431FA-AM132T-i5-10210U/dp/B083WMSLW2/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 bx425ea-bm144r - portátil full hd (core i7-1165g7, 16gb ram, 512gb ssd, iris xe graphics, windows 10 pro) gris pino - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-14-BX425EA-BM144R-i7-1165G7/dp/B08XBYXXMZ/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14  </t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 um425ia-hm101t / 14" full hd/amd ryzen 7 4700u / 16gb ram / 512gb ssd/windows 10 / gris</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-UM425IA-HM101T-Ryzen-Windows/dp/B08H5TL9YX/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14&amp;qid=1631089935&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14 ultralight  </t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 ultralight ux435eal-kc096t - portátil de 14" full hd (intel core i7-1165g7, 16gb ram, 512gb ssd, 32gb intel optane, intel iris xe graphics, sin so) gris pino - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-Ultralight-UX435EAL-KC096T-i7-1165G7/dp/B08BZ63P8G/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14+ultralight&amp;qid=1631089949&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook 14 um425ia-am006t  </t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>asus zenbook 14 um425ia-am006t - portátil full hd (ryzen 7 4700u, 16gb ram, 512gb ssd, radeon graphics, windows 10 home) gris pino - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-14-UM425IA-AM006T-Port%C3%A1til/dp/B08WWJHKZ7/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+14+um425ia-am006t&amp;qid=1631089963&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook flip 13  </t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>asus zenbook flip 13 ux363ja-em189t - portátil convertible 13.3" fullhd (intel core i5-1035g4, 16gb ram, 512gb ssd, intel iris plus graphics, windows 10 home) gris pino-teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-Flip-UX363JA-EM189T-Pino-Teclado/dp/B08CS7D3RL/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+flip+13&amp;qid=1631089976&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook flip 13  </t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>asus zenbook flip 13 ux363ea-em087t - portátil convertible de 13.3" fullhd (intel core i5-1135g7, 8gb ram, 512gb ssd, intel iris xe graphics, windows 10 home ) gris pino - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-Flip-UX363EA-EM087T-Convertible/dp/B08NTSGTRD/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+flip+13&amp;qid=1631089976&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook flip 13  </t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>asus zenbook flip 13 ux363ea-hp043t - ordenador portátil 13.3" full hd (intel core i7-1165g7, 16gb ram, 512gb ssd, intel iris xe graphics, windows 10 home) gris pino-teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-Flip-UX363EA-HP043T-Pino-Teclado/dp/B08BZ5KYK1/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+flip+13&amp;qid=1631089976&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook flip 13  </t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>asus zenbook flip 13 bx363ea-em190r - portátil 13.3" full hd (core i7-1165g7, 16gb ram, 512gb ssd, iris xe graphics, windows 10 pro) gris pino - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-Flip-BX363EA-EM190R-i7-1165G7/dp/B08XBZ2HYB/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+flip+13&amp;qid=1631089976&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asus zenbook flip bx363ea-em190r  </t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>asus zenbook flip 13 bx363ea-em190r - portátil 13.3" full hd (core i7-1165g7, 16gb ram, 512gb ssd, iris xe graphics, windows 10 pro) gris pino - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ASUS-ZenBook-Flip-BX363EA-EM190R-i7-1165G7/dp/B08XBZ2HYB/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=asus+zenbook+flip+bx363ea-em190r&amp;qid=1631089992&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>